--- a/Paolo/Scripts/Bases/Tipo_Empresas.xlsx
+++ b/Paolo/Scripts/Bases/Tipo_Empresas.xlsx
@@ -5,19 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paolo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NUEVO D\REPOSITORIO_GITHUB\OEFA_SMER\Paolo\Scripts\Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
-    <sheet name="Resumen" sheetId="1" r:id="rId1"/>
+    <sheet name="Final" sheetId="1" r:id="rId1"/>
+    <sheet name="Resumen" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Resumen!$A$1:$E$233</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Final!$A$1:$C$233</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Resumen!$A$1:$E$233</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="251">
   <si>
     <t>Administrado</t>
   </si>
@@ -812,12 +814,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -832,10 +846,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1152,24 +1172,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E233"/>
+  <dimension ref="A1:C233"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C229" sqref="C3:C229"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="53.21875" style="1" customWidth="1"/>
-    <col min="2" max="5" width="20.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.44140625" style="1"/>
+    <col min="2" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1177,6 +1197,2588 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C233"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F233"/>
+  <sheetViews>
+    <sheetView topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="20.6640625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1185,8 +3787,11 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1202,36 +3807,43 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="2"/>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" s="2"/>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1247,8 +3859,11 @@
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1264,8 +3879,11 @@
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1281,8 +3899,11 @@
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1298,22 +3919,27 @@
       <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="2"/>
+      <c r="F9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1329,8 +3955,11 @@
       <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1346,8 +3975,11 @@
       <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1363,8 +3995,11 @@
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1377,11 +4012,12 @@
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1397,8 +4033,11 @@
       <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -1414,8 +4053,11 @@
       <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1431,8 +4073,11 @@
       <c r="E16" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -1448,8 +4093,11 @@
       <c r="E17" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1465,8 +4113,11 @@
       <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1482,8 +4133,11 @@
       <c r="E19" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
@@ -1499,8 +4153,11 @@
       <c r="E20" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -1516,8 +4173,11 @@
       <c r="E21" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -1533,8 +4193,11 @@
       <c r="E22" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
@@ -1550,8 +4213,11 @@
       <c r="E23" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1567,8 +4233,11 @@
       <c r="E24" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
@@ -1584,8 +4253,11 @@
       <c r="E25" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1601,8 +4273,11 @@
       <c r="E26" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
@@ -1618,8 +4293,11 @@
       <c r="E27" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
@@ -1635,8 +4313,11 @@
       <c r="E28" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
@@ -1652,8 +4333,11 @@
       <c r="E29" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
@@ -1669,8 +4353,11 @@
       <c r="E30" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
@@ -1686,8 +4373,11 @@
       <c r="E31" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
@@ -1700,11 +4390,12 @@
       <c r="D32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
@@ -1720,8 +4411,11 @@
       <c r="E33" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
@@ -1737,8 +4431,11 @@
       <c r="E34" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
@@ -1754,8 +4451,11 @@
       <c r="E35" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
@@ -1771,22 +4471,27 @@
       <c r="E36" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="2"/>
+      <c r="F37" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>54</v>
       </c>
@@ -1802,8 +4507,11 @@
       <c r="E38" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
@@ -1819,8 +4527,11 @@
       <c r="E39" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
@@ -1836,8 +4547,11 @@
       <c r="E40" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
@@ -1853,8 +4567,11 @@
       <c r="E41" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
@@ -1870,8 +4587,11 @@
       <c r="E42" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
@@ -1887,8 +4607,11 @@
       <c r="E43" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
@@ -1904,8 +4627,11 @@
       <c r="E44" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -1921,8 +4647,11 @@
       <c r="E45" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
@@ -1938,8 +4667,11 @@
       <c r="E46" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>63</v>
       </c>
@@ -1955,8 +4687,11 @@
       <c r="E47" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>64</v>
       </c>
@@ -1972,8 +4707,11 @@
       <c r="E48" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
@@ -1989,8 +4727,11 @@
       <c r="E49" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
@@ -2003,11 +4744,12 @@
       <c r="D50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
@@ -2023,8 +4765,11 @@
       <c r="E51" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>68</v>
       </c>
@@ -2040,8 +4785,11 @@
       <c r="E52" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>69</v>
       </c>
@@ -2057,8 +4805,11 @@
       <c r="E53" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>70</v>
       </c>
@@ -2074,8 +4825,11 @@
       <c r="E54" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>71</v>
       </c>
@@ -2091,8 +4845,11 @@
       <c r="E55" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>72</v>
       </c>
@@ -2105,11 +4862,12 @@
       <c r="D56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>73</v>
       </c>
@@ -2125,8 +4883,11 @@
       <c r="E57" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>74</v>
       </c>
@@ -2142,8 +4903,11 @@
       <c r="E58" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>75</v>
       </c>
@@ -2159,8 +4923,11 @@
       <c r="E59" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>76</v>
       </c>
@@ -2176,8 +4943,11 @@
       <c r="E60" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>77</v>
       </c>
@@ -2193,8 +4963,11 @@
       <c r="E61" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>78</v>
       </c>
@@ -2210,8 +4983,11 @@
       <c r="E62" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>79</v>
       </c>
@@ -2227,8 +5003,11 @@
       <c r="E63" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>80</v>
       </c>
@@ -2244,8 +5023,11 @@
       <c r="E64" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>81</v>
       </c>
@@ -2261,8 +5043,11 @@
       <c r="E65" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>82</v>
       </c>
@@ -2278,8 +5063,11 @@
       <c r="E66" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>83</v>
       </c>
@@ -2295,8 +5083,11 @@
       <c r="E67" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>84</v>
       </c>
@@ -2312,8 +5103,11 @@
       <c r="E68" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>85</v>
       </c>
@@ -2329,8 +5123,11 @@
       <c r="E69" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>86</v>
       </c>
@@ -2346,8 +5143,11 @@
       <c r="E70" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>87</v>
       </c>
@@ -2363,8 +5163,11 @@
       <c r="E71" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>88</v>
       </c>
@@ -2377,11 +5180,12 @@
       <c r="D72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E72" s="2"/>
+      <c r="F72" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>89</v>
       </c>
@@ -2394,11 +5198,12 @@
       <c r="D73" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E73" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E73" s="2"/>
+      <c r="F73" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>90</v>
       </c>
@@ -2414,8 +5219,11 @@
       <c r="E74" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>91</v>
       </c>
@@ -2431,8 +5239,11 @@
       <c r="E75" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>92</v>
       </c>
@@ -2448,8 +5259,11 @@
       <c r="E76" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>93</v>
       </c>
@@ -2465,8 +5279,11 @@
       <c r="E77" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>94</v>
       </c>
@@ -2482,8 +5299,11 @@
       <c r="E78" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>95</v>
       </c>
@@ -2499,8 +5319,11 @@
       <c r="E79" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>96</v>
       </c>
@@ -2516,8 +5339,11 @@
       <c r="E80" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>97</v>
       </c>
@@ -2533,8 +5359,11 @@
       <c r="E81" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>98</v>
       </c>
@@ -2550,8 +5379,11 @@
       <c r="E82" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>100</v>
       </c>
@@ -2567,22 +5399,27 @@
       <c r="E83" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E84" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E84" s="2"/>
+      <c r="F84" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>102</v>
       </c>
@@ -2598,8 +5435,11 @@
       <c r="E85" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>103</v>
       </c>
@@ -2615,8 +5455,11 @@
       <c r="E86" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>104</v>
       </c>
@@ -2632,8 +5475,11 @@
       <c r="E87" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>105</v>
       </c>
@@ -2649,8 +5495,11 @@
       <c r="E88" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>106</v>
       </c>
@@ -2666,8 +5515,11 @@
       <c r="E89" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>107</v>
       </c>
@@ -2683,8 +5535,11 @@
       <c r="E90" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>108</v>
       </c>
@@ -2700,8 +5555,11 @@
       <c r="E91" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>109</v>
       </c>
@@ -2714,11 +5572,12 @@
       <c r="D92" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E92" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E92" s="2"/>
+      <c r="F92" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>110</v>
       </c>
@@ -2731,11 +5590,12 @@
       <c r="D93" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E93" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E93" s="2"/>
+      <c r="F93" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>111</v>
       </c>
@@ -2748,11 +5608,12 @@
       <c r="D94" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E94" s="2"/>
+      <c r="F94" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>112</v>
       </c>
@@ -2768,8 +5629,11 @@
       <c r="E95" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>113</v>
       </c>
@@ -2785,8 +5649,11 @@
       <c r="E96" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>114</v>
       </c>
@@ -2799,11 +5666,12 @@
       <c r="D97" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E97" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E97" s="2"/>
+      <c r="F97" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>115</v>
       </c>
@@ -2819,8 +5687,11 @@
       <c r="E98" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>116</v>
       </c>
@@ -2836,8 +5707,11 @@
       <c r="E99" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>117</v>
       </c>
@@ -2853,8 +5727,11 @@
       <c r="E100" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>118</v>
       </c>
@@ -2870,8 +5747,11 @@
       <c r="E101" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>119</v>
       </c>
@@ -2887,8 +5767,11 @@
       <c r="E102" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>120</v>
       </c>
@@ -2904,8 +5787,11 @@
       <c r="E103" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>121</v>
       </c>
@@ -2921,8 +5807,11 @@
       <c r="E104" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>122</v>
       </c>
@@ -2938,8 +5827,11 @@
       <c r="E105" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>123</v>
       </c>
@@ -2955,8 +5847,11 @@
       <c r="E106" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>124</v>
       </c>
@@ -2972,8 +5867,11 @@
       <c r="E107" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>125</v>
       </c>
@@ -2989,8 +5887,11 @@
       <c r="E108" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>126</v>
       </c>
@@ -3006,8 +5907,11 @@
       <c r="E109" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>127</v>
       </c>
@@ -3023,8 +5927,11 @@
       <c r="E110" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>128</v>
       </c>
@@ -3037,11 +5944,12 @@
       <c r="D111" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E111" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E111" s="2"/>
+      <c r="F111" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>129</v>
       </c>
@@ -3057,8 +5965,11 @@
       <c r="E112" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>130</v>
       </c>
@@ -3074,8 +5985,11 @@
       <c r="E113" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>131</v>
       </c>
@@ -3091,8 +6005,11 @@
       <c r="E114" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>132</v>
       </c>
@@ -3108,8 +6025,11 @@
       <c r="E115" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>133</v>
       </c>
@@ -3122,11 +6042,12 @@
       <c r="D116" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E116" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E116" s="2"/>
+      <c r="F116" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>134</v>
       </c>
@@ -3142,8 +6063,11 @@
       <c r="E117" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>135</v>
       </c>
@@ -3159,22 +6083,27 @@
       <c r="E118" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C119" s="2"/>
       <c r="D119" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E119" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E119" s="2"/>
+      <c r="F119" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>137</v>
       </c>
@@ -3190,8 +6119,11 @@
       <c r="E120" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>138</v>
       </c>
@@ -3207,8 +6139,11 @@
       <c r="E121" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>139</v>
       </c>
@@ -3221,11 +6156,12 @@
       <c r="D122" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E122" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E122" s="2"/>
+      <c r="F122" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>140</v>
       </c>
@@ -3241,8 +6177,11 @@
       <c r="E123" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>141</v>
       </c>
@@ -3258,8 +6197,11 @@
       <c r="E124" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>142</v>
       </c>
@@ -3275,8 +6217,11 @@
       <c r="E125" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>143</v>
       </c>
@@ -3292,8 +6237,11 @@
       <c r="E126" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>144</v>
       </c>
@@ -3309,8 +6257,11 @@
       <c r="E127" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>145</v>
       </c>
@@ -3326,8 +6277,11 @@
       <c r="E128" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>146</v>
       </c>
@@ -3343,8 +6297,11 @@
       <c r="E129" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>147</v>
       </c>
@@ -3360,8 +6317,11 @@
       <c r="E130" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>148</v>
       </c>
@@ -3377,8 +6337,11 @@
       <c r="E131" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>149</v>
       </c>
@@ -3394,8 +6357,11 @@
       <c r="E132" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>150</v>
       </c>
@@ -3411,8 +6377,11 @@
       <c r="E133" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>151</v>
       </c>
@@ -3428,8 +6397,11 @@
       <c r="E134" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>152</v>
       </c>
@@ -3445,8 +6417,11 @@
       <c r="E135" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>153</v>
       </c>
@@ -3462,8 +6437,11 @@
       <c r="E136" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>154</v>
       </c>
@@ -3479,22 +6457,27 @@
       <c r="E137" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C138" s="2"/>
       <c r="D138" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E138" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E138" s="2"/>
+      <c r="F138" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>156</v>
       </c>
@@ -3510,8 +6493,11 @@
       <c r="E139" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>157</v>
       </c>
@@ -3527,8 +6513,11 @@
       <c r="E140" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>158</v>
       </c>
@@ -3544,8 +6533,11 @@
       <c r="E141" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F141" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>159</v>
       </c>
@@ -3561,8 +6553,11 @@
       <c r="E142" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F142" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>160</v>
       </c>
@@ -3578,8 +6573,11 @@
       <c r="E143" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>161</v>
       </c>
@@ -3595,8 +6593,11 @@
       <c r="E144" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>162</v>
       </c>
@@ -3612,22 +6613,27 @@
       <c r="E145" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F145" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C146" s="2"/>
       <c r="D146" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E146" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E146" s="2"/>
+      <c r="F146" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>164</v>
       </c>
@@ -3640,11 +6646,12 @@
       <c r="D147" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E147" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E147" s="2"/>
+      <c r="F147" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>165</v>
       </c>
@@ -3660,8 +6667,11 @@
       <c r="E148" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>166</v>
       </c>
@@ -3677,8 +6687,11 @@
       <c r="E149" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>167</v>
       </c>
@@ -3694,8 +6707,11 @@
       <c r="E150" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>168</v>
       </c>
@@ -3711,8 +6727,11 @@
       <c r="E151" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>169</v>
       </c>
@@ -3728,8 +6747,11 @@
       <c r="E152" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F152" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>170</v>
       </c>
@@ -3742,11 +6764,12 @@
       <c r="D153" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E153" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E153" s="2"/>
+      <c r="F153" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>171</v>
       </c>
@@ -3762,8 +6785,11 @@
       <c r="E154" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>172</v>
       </c>
@@ -3779,8 +6805,11 @@
       <c r="E155" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>173</v>
       </c>
@@ -3793,11 +6822,12 @@
       <c r="D156" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E156" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E156" s="2"/>
+      <c r="F156" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>174</v>
       </c>
@@ -3813,8 +6843,11 @@
       <c r="E157" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F157" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>175</v>
       </c>
@@ -3830,8 +6863,11 @@
       <c r="E158" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F158" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>176</v>
       </c>
@@ -3847,8 +6883,11 @@
       <c r="E159" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>177</v>
       </c>
@@ -3864,8 +6903,11 @@
       <c r="E160" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>178</v>
       </c>
@@ -3878,11 +6920,12 @@
       <c r="D161" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E161" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E161" s="2"/>
+      <c r="F161" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>179</v>
       </c>
@@ -3895,11 +6938,12 @@
       <c r="D162" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E162" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E162" s="2"/>
+      <c r="F162" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>180</v>
       </c>
@@ -3912,11 +6956,12 @@
       <c r="D163" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E163" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E163" s="2"/>
+      <c r="F163" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>181</v>
       </c>
@@ -3932,8 +6977,11 @@
       <c r="E164" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F164" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>182</v>
       </c>
@@ -3946,11 +6994,12 @@
       <c r="D165" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E165" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E165" s="2"/>
+      <c r="F165" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>183</v>
       </c>
@@ -3966,8 +7015,11 @@
       <c r="E166" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F166" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>184</v>
       </c>
@@ -3980,11 +7032,12 @@
       <c r="D167" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E167" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E167" s="2"/>
+      <c r="F167" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>185</v>
       </c>
@@ -4000,8 +7053,11 @@
       <c r="E168" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>186</v>
       </c>
@@ -4017,8 +7073,11 @@
       <c r="E169" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>187</v>
       </c>
@@ -4031,11 +7090,12 @@
       <c r="D170" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E170" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E170" s="2"/>
+      <c r="F170" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>188</v>
       </c>
@@ -4051,8 +7111,11 @@
       <c r="E171" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F171" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>189</v>
       </c>
@@ -4068,8 +7131,11 @@
       <c r="E172" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F172" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>190</v>
       </c>
@@ -4082,11 +7148,12 @@
       <c r="D173" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E173" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E173" s="2"/>
+      <c r="F173" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>191</v>
       </c>
@@ -4099,11 +7166,12 @@
       <c r="D174" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E174" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E174" s="2"/>
+      <c r="F174" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>192</v>
       </c>
@@ -4116,11 +7184,12 @@
       <c r="D175" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E175" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E175" s="2"/>
+      <c r="F175" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>193</v>
       </c>
@@ -4136,8 +7205,11 @@
       <c r="E176" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F176" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>194</v>
       </c>
@@ -4153,8 +7225,11 @@
       <c r="E177" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F177" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>195</v>
       </c>
@@ -4167,25 +7242,28 @@
       <c r="D178" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E178" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E178" s="2"/>
+      <c r="F178" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C179" s="2"/>
       <c r="D179" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E179" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E179" s="2"/>
+      <c r="F179" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>197</v>
       </c>
@@ -4198,11 +7276,12 @@
       <c r="D180" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E180" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E180" s="2"/>
+      <c r="F180" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>198</v>
       </c>
@@ -4218,22 +7297,27 @@
       <c r="E181" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F181" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C182" s="2"/>
       <c r="D182" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E182" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E182" s="2"/>
+      <c r="F182" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>200</v>
       </c>
@@ -4246,11 +7330,12 @@
       <c r="D183" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E183" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E183" s="2"/>
+      <c r="F183" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>201</v>
       </c>
@@ -4266,8 +7351,11 @@
       <c r="E184" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F184" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>202</v>
       </c>
@@ -4280,11 +7368,12 @@
       <c r="D185" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E185" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E185" s="2"/>
+      <c r="F185" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>203</v>
       </c>
@@ -4300,8 +7389,11 @@
       <c r="E186" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F186" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>204</v>
       </c>
@@ -4317,8 +7409,11 @@
       <c r="E187" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F187" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>205</v>
       </c>
@@ -4334,8 +7429,11 @@
       <c r="E188" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F188" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>206</v>
       </c>
@@ -4351,8 +7449,11 @@
       <c r="E189" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F189" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>207</v>
       </c>
@@ -4368,8 +7469,11 @@
       <c r="E190" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F190" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>208</v>
       </c>
@@ -4382,11 +7486,12 @@
       <c r="D191" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E191" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E191" s="2"/>
+      <c r="F191" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>209</v>
       </c>
@@ -4402,8 +7507,11 @@
       <c r="E192" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F192" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>210</v>
       </c>
@@ -4419,8 +7527,11 @@
       <c r="E193" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F193" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>211</v>
       </c>
@@ -4436,8 +7547,11 @@
       <c r="E194" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F194" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>212</v>
       </c>
@@ -4453,8 +7567,11 @@
       <c r="E195" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F195" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>213</v>
       </c>
@@ -4470,8 +7587,11 @@
       <c r="E196" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F196" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>214</v>
       </c>
@@ -4484,11 +7604,12 @@
       <c r="D197" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E197" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E197" s="2"/>
+      <c r="F197" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>215</v>
       </c>
@@ -4504,8 +7625,11 @@
       <c r="E198" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F198" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>216</v>
       </c>
@@ -4521,8 +7645,11 @@
       <c r="E199" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F199" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>217</v>
       </c>
@@ -4535,11 +7662,12 @@
       <c r="D200" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E200" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E200" s="2"/>
+      <c r="F200" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>218</v>
       </c>
@@ -4552,11 +7680,12 @@
       <c r="D201" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E201" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E201" s="2"/>
+      <c r="F201" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>219</v>
       </c>
@@ -4572,8 +7701,11 @@
       <c r="E202" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F202" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>220</v>
       </c>
@@ -4589,8 +7721,11 @@
       <c r="E203" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F203" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>221</v>
       </c>
@@ -4606,8 +7741,11 @@
       <c r="E204" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F204" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>222</v>
       </c>
@@ -4620,11 +7758,12 @@
       <c r="D205" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E205" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E205" s="2"/>
+      <c r="F205" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>223</v>
       </c>
@@ -4637,25 +7776,28 @@
       <c r="D206" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E206" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E206" s="2"/>
+      <c r="F206" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C207" s="2"/>
       <c r="D207" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E207" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E207" s="2"/>
+      <c r="F207" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>225</v>
       </c>
@@ -4671,8 +7813,11 @@
       <c r="E208" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F208" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>226</v>
       </c>
@@ -4688,8 +7833,11 @@
       <c r="E209" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F209" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>227</v>
       </c>
@@ -4705,8 +7853,11 @@
       <c r="E210" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F210" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>228</v>
       </c>
@@ -4722,8 +7873,11 @@
       <c r="E211" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F211" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>229</v>
       </c>
@@ -4736,11 +7890,12 @@
       <c r="D212" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E212" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E212" s="2"/>
+      <c r="F212" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>230</v>
       </c>
@@ -4756,8 +7911,11 @@
       <c r="E213" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F213" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>231</v>
       </c>
@@ -4773,8 +7931,11 @@
       <c r="E214" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F214" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>232</v>
       </c>
@@ -4790,8 +7951,11 @@
       <c r="E215" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F215" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>233</v>
       </c>
@@ -4807,8 +7971,11 @@
       <c r="E216" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F216" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>234</v>
       </c>
@@ -4824,8 +7991,11 @@
       <c r="E217" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F217" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>235</v>
       </c>
@@ -4838,11 +8008,12 @@
       <c r="D218" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E218" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E218" s="2"/>
+      <c r="F218" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>236</v>
       </c>
@@ -4858,8 +8029,11 @@
       <c r="E219" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F219" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>237</v>
       </c>
@@ -4875,8 +8049,11 @@
       <c r="E220" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F220" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>238</v>
       </c>
@@ -4892,8 +8069,11 @@
       <c r="E221" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F221" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>239</v>
       </c>
@@ -4909,8 +8089,11 @@
       <c r="E222" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F222" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>240</v>
       </c>
@@ -4926,8 +8109,11 @@
       <c r="E223" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F223" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>241</v>
       </c>
@@ -4943,8 +8129,11 @@
       <c r="E224" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F224" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>242</v>
       </c>
@@ -4960,8 +8149,11 @@
       <c r="E225" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F225" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>243</v>
       </c>
@@ -4977,8 +8169,11 @@
       <c r="E226" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F226" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>244</v>
       </c>
@@ -4994,8 +8189,11 @@
       <c r="E227" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F227" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>245</v>
       </c>
@@ -5011,22 +8209,27 @@
       <c r="E228" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F228" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C229" s="2"/>
       <c r="D229" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E229" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E229" s="2"/>
+      <c r="F229" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>247</v>
       </c>
@@ -5042,8 +8245,11 @@
       <c r="E230" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F230" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>248</v>
       </c>
@@ -5059,8 +8265,11 @@
       <c r="E231" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F231" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>249</v>
       </c>
@@ -5076,8 +8285,11 @@
       <c r="E232" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F232" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>250</v>
       </c>
@@ -5092,6 +8304,9 @@
       </c>
       <c r="E233" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Paolo/Scripts/Bases/Tipo_Empresas.xlsx
+++ b/Paolo/Scripts/Bases/Tipo_Empresas.xlsx
@@ -1175,7 +1175,7 @@
   <dimension ref="A1:C233"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -3762,7 +3762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F233"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
